--- a/labels_Q17.xlsx
+++ b/labels_Q17.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au473419_uni_au_dk/Documents/Desktop/PHD/Theme 4 - Survey/Data/pulses23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{77ABB010-2A98-4E53-9722-A43A62982526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{910C8B17-8D6C-403C-A566-F273EBB9F3BD}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{77ABB010-2A98-4E53-9722-A43A62982526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DC76B09-7106-4CD8-97A8-40874C04835C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{0011E320-9BE6-4B0A-B68D-178C17CF6866}"/>
+    <workbookView xWindow="53880" yWindow="-2850" windowWidth="29040" windowHeight="15840" xr2:uid="{0011E320-9BE6-4B0A-B68D-178C17CF6866}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,9 +80,6 @@
     <t>Food neophobia</t>
   </si>
   <si>
-    <t>Low/no familiriaty</t>
-  </si>
-  <si>
     <t>Unhealthy</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>Low visibility in store</t>
+  </si>
+  <si>
+    <t>Low/no familiarity</t>
   </si>
 </sst>
 </file>
@@ -143,15 +143,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,13 +488,10 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="8.7265625" style="3"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -583,49 +579,49 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2"/>
     </row>

--- a/labels_Q17.xlsx
+++ b/labels_Q17.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au473419_uni_au_dk/Documents/Desktop/PHD/Theme 4 - Survey/Data/pulses23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{77ABB010-2A98-4E53-9722-A43A62982526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DC76B09-7106-4CD8-97A8-40874C04835C}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{77ABB010-2A98-4E53-9722-A43A62982526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD88948A-BAE4-4171-9137-C066767D9EF2}"/>
   <bookViews>
     <workbookView xWindow="53880" yWindow="-2850" windowWidth="29040" windowHeight="15840" xr2:uid="{0011E320-9BE6-4B0A-B68D-178C17CF6866}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Low quality</t>
   </si>
   <si>
-    <t>Limited/ No organic</t>
-  </si>
-  <si>
     <t>Nutritional deficiencies</t>
   </si>
   <si>
@@ -62,18 +59,12 @@
     <t>Close circle does not consume</t>
   </si>
   <si>
-    <t>Low knowledge on preparation</t>
-  </si>
-  <si>
     <t>Long preparation</t>
   </si>
   <si>
     <t>No local production</t>
   </si>
   <si>
-    <t>Antinutrients/ Allergences</t>
-  </si>
-  <si>
     <t>Not envirometally sustainable</t>
   </si>
   <si>
@@ -98,10 +89,19 @@
     <t>Unethical production</t>
   </si>
   <si>
-    <t>Low visibility in store</t>
-  </si>
-  <si>
     <t>Low/no familiarity</t>
+  </si>
+  <si>
+    <t>Low visibility</t>
+  </si>
+  <si>
+    <t>Antinutrients/ allergens</t>
+  </si>
+  <si>
+    <t>Low knowledge on use</t>
+  </si>
+  <si>
+    <t>Limited/ no organic</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -507,121 +507,121 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" s="2"/>
     </row>
